--- a/biology/Médecine/1436_en_santé_et_médecine/1436_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1436_en_santé_et_médecine/1436_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1436_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1436_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1436 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1436_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1436_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6 octobre : Louis, lieutenant général de Savoie et prince de Piémont, accorde ses licences à la faculté de médecine de Turin[1].
-Sigismond, empereur d'Allemagne,  prescrit aux villes de pensionner un médecin officiel (« Stadtphysicus[2] »).
-L'emploi de la feuille du Ginkgo biloba contre les affections pulmonaires[3] est attesté en Chine[4].
-Le conseil d'Augsbourg, ville libre d'Empire, prend à sa charge les soins donnés à plusieurs femmes en couches[5].
-Fondation à Valladolid en Castille d'un hospice pour les malades mentaux[6].
-Fondation d'une compagnie de barbiers chirurgiens à Beverley dans le comté d'York en Angleterre[7].
-L'organisation d'examens par la corporation des albéitares (hippologues et hippiatres) de Valence, en Espagne, est mentionnée pour la première fois[8].
-Vers 1436 : fondation de l'hôpital des Innocents de Séville en Espagne[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6 octobre : Louis, lieutenant général de Savoie et prince de Piémont, accorde ses licences à la faculté de médecine de Turin.
+Sigismond, empereur d'Allemagne,  prescrit aux villes de pensionner un médecin officiel (« Stadtphysicus »).
+L'emploi de la feuille du Ginkgo biloba contre les affections pulmonaires est attesté en Chine.
+Le conseil d'Augsbourg, ville libre d'Empire, prend à sa charge les soins donnés à plusieurs femmes en couches.
+Fondation à Valladolid en Castille d'un hospice pour les malades mentaux.
+Fondation d'une compagnie de barbiers chirurgiens à Beverley dans le comté d'York en Angleterre.
+L'organisation d'examens par la corporation des albéitares (hippologues et hippiatres) de Valence, en Espagne, est mentionnée pour la première fois.
+Vers 1436 : fondation de l'hôpital des Innocents de Séville en Espagne.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1436_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1436_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>29 avril : Raymond Sebon (né vers 1385), médecin, théologien et philosophe catalan, surtout connu pour sa Theologia naturalis, achevée en 1436 et traduite en français par Montaigne en 1569[10].
-Dorotea Bucca (née en 1360), professeur de médecine et de philosophie à Bologne[11].
-Jean Fusoris (né vers 1365), mathématicien et astronome, reçu maître en médecine à Paris, médecin de l'évêque de Norwich, Richard Courtenay (en), mais surtout connu comme concepteur et fabricant d'instruments d'astronomie[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>29 avril : Raymond Sebon (né vers 1385), médecin, théologien et philosophe catalan, surtout connu pour sa Theologia naturalis, achevée en 1436 et traduite en français par Montaigne en 1569.
+Dorotea Bucca (née en 1360), professeur de médecine et de philosophie à Bologne.
+Jean Fusoris (né vers 1365), mathématicien et astronome, reçu maître en médecine à Paris, médecin de l'évêque de Norwich, Richard Courtenay (en), mais surtout connu comme concepteur et fabricant d'instruments d'astronomie.</t>
         </is>
       </c>
     </row>
